--- a/data/trans_orig/P57C1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57C1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3684B7F-4DF7-47E1-B27B-237C214213BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70B367F9-8367-4BAD-B212-13E019770156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{95AF22D4-14E5-4214-93BB-1975DCCF1685}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D6EF0278-C615-4DCF-899D-B519125AC5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="321">
   <si>
     <t>Población según si ha sido optimista respecto a su futuro en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -83,16 +83,13 @@
     <t>1,78%</t>
   </si>
   <si>
-    <t>5,93%</t>
+    <t>5,95%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
+    <t>3,15%</t>
   </si>
   <si>
     <t>En desacuerdo</t>
@@ -101,892 +98,904 @@
     <t>0,43%</t>
   </si>
   <si>
-    <t>2,41%</t>
+    <t>1,95%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>0,46%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>De acuerdo</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>Muy de acuerdo</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
   </si>
   <si>
     <t>2,94%</t>
   </si>
   <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
   </si>
   <si>
     <t>7,75%</t>
   </si>
   <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>De acuerdo</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>Muy de acuerdo</t>
-  </si>
-  <si>
-    <t>54,55%</t>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
   </si>
   <si>
     <t>45,29%</t>
   </si>
   <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
   </si>
   <si>
     <t>35,25%</t>
   </si>
   <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
   </si>
   <si>
     <t>30,06%</t>
   </si>
   <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
   </si>
   <si>
     <t>32,5%</t>
   </si>
   <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1401,7 +1410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB3630E-D457-4673-9C95-90359560A51E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C356D5A6-47C9-4E5B-9CD7-77EC33FFA092}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1558,16 +1567,16 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1576,13 +1585,13 @@
         <v>1618</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -1591,13 +1600,13 @@
         <v>8400</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -1606,19 +1615,19 @@
         <v>10019</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7">
         <v>14</v>
@@ -1627,13 +1636,13 @@
         <v>31962</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -1642,13 +1651,13 @@
         <v>46242</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>40</v>
@@ -1657,19 +1666,19 @@
         <v>78204</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>60</v>
@@ -1678,13 +1687,13 @@
         <v>137906</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H7" s="7">
         <v>77</v>
@@ -1693,13 +1702,13 @@
         <v>128019</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>137</v>
@@ -1708,19 +1717,19 @@
         <v>265924</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>96</v>
@@ -1729,13 +1738,13 @@
         <v>206033</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H8" s="7">
         <v>95</v>
@@ -1744,13 +1753,13 @@
         <v>165819</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M8" s="7">
         <v>191</v>
@@ -1759,13 +1768,13 @@
         <v>371851</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1780,13 +1789,13 @@
         <v>377679</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>206</v>
@@ -1795,13 +1804,13 @@
         <v>354798</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>378</v>
@@ -1810,18 +1819,18 @@
         <v>732476</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1833,13 +1842,13 @@
         <v>7142</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -1848,13 +1857,13 @@
         <v>7108</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -1863,19 +1872,19 @@
         <v>14250</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>8</v>
@@ -1884,7 +1893,7 @@
         <v>13283</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>69</v>
@@ -1926,7 +1935,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7">
         <v>26</v>
@@ -1977,7 +1986,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
         <v>141</v>
@@ -2028,7 +2037,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>122</v>
@@ -2088,13 +2097,13 @@
         <v>428396</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>460</v>
@@ -2103,13 +2112,13 @@
         <v>498577</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>762</v>
@@ -2118,13 +2127,13 @@
         <v>926973</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,7 +2156,7 @@
         <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2156,13 +2165,13 @@
         <v>4093</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -2171,19 +2180,19 @@
         <v>15574</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>21</v>
@@ -2192,13 +2201,13 @@
         <v>21555</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -2207,13 +2216,13 @@
         <v>21950</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -2222,19 +2231,19 @@
         <v>43504</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7">
         <v>48</v>
@@ -2243,7 +2252,7 @@
         <v>43175</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>121</v>
@@ -2264,7 +2273,7 @@
         <v>124</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="M18" s="7">
         <v>131</v>
@@ -2273,19 +2282,19 @@
         <v>101907</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
         <v>241</v>
@@ -2294,13 +2303,13 @@
         <v>242330</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H19" s="7">
         <v>416</v>
@@ -2309,13 +2318,13 @@
         <v>272549</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M19" s="7">
         <v>657</v>
@@ -2324,19 +2333,19 @@
         <v>514879</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>225</v>
@@ -2345,13 +2354,13 @@
         <v>238712</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>308</v>
@@ -2360,13 +2369,13 @@
         <v>225310</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>533</v>
@@ -2375,13 +2384,13 @@
         <v>464021</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,13 +2405,13 @@
         <v>557252</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>844</v>
@@ -2411,13 +2420,13 @@
         <v>582634</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>1390</v>
@@ -2426,13 +2435,13 @@
         <v>1139886</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,7 +2500,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7">
         <v>34</v>
@@ -2518,10 +2527,10 @@
         <v>159</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>101</v>
@@ -2530,19 +2539,19 @@
         <v>78090</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="7">
         <v>71</v>
@@ -2551,13 +2560,13 @@
         <v>69206</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>127</v>
@@ -2566,13 +2575,13 @@
         <v>83172</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>198</v>
@@ -2581,19 +2590,19 @@
         <v>152378</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
         <v>334</v>
@@ -2602,13 +2611,13 @@
         <v>324718</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>564</v>
@@ -2617,10 +2626,10 @@
         <v>359011</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>177</v>
@@ -2644,7 +2653,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>208</v>
@@ -2653,13 +2662,13 @@
         <v>275385</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>359</v>
@@ -2668,13 +2677,13 @@
         <v>246356</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>567</v>
@@ -2683,13 +2692,13 @@
         <v>521740</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,13 +2713,13 @@
         <v>722954</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>1139</v>
@@ -2719,13 +2728,13 @@
         <v>746099</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>1803</v>
@@ -2734,18 +2743,18 @@
         <v>1469053</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2757,13 +2766,13 @@
         <v>15293</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="H28" s="7">
         <v>33</v>
@@ -2772,13 +2781,13 @@
         <v>21043</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M28" s="7">
         <v>50</v>
@@ -2787,19 +2796,19 @@
         <v>36336</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7">
         <v>57</v>
@@ -2808,13 +2817,13 @@
         <v>50312</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H29" s="7">
         <v>81</v>
@@ -2823,13 +2832,13 @@
         <v>49057</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M29" s="7">
         <v>138</v>
@@ -2838,19 +2847,19 @@
         <v>99368</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="7">
         <v>102</v>
@@ -2859,13 +2868,13 @@
         <v>93090</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H30" s="7">
         <v>203</v>
@@ -2874,13 +2883,13 @@
         <v>126140</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M30" s="7">
         <v>305</v>
@@ -2889,19 +2898,19 @@
         <v>219229</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="7">
         <v>343</v>
@@ -2910,13 +2919,13 @@
         <v>301834</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>218</v>
+        <v>53</v>
       </c>
       <c r="H31" s="7">
         <v>469</v>
@@ -2925,13 +2934,13 @@
         <v>270610</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M31" s="7">
         <v>812</v>
@@ -2940,19 +2949,19 @@
         <v>572444</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7">
         <v>143</v>
@@ -2961,13 +2970,13 @@
         <v>138558</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H32" s="7">
         <v>212</v>
@@ -2976,13 +2985,13 @@
         <v>127297</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M32" s="7">
         <v>355</v>
@@ -2991,13 +3000,13 @@
         <v>265856</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,13 +3021,13 @@
         <v>599086</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H33" s="7">
         <v>998</v>
@@ -3027,13 +3036,13 @@
         <v>594147</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M33" s="7">
         <v>1660</v>
@@ -3042,18 +3051,18 @@
         <v>1193233</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3065,13 +3074,13 @@
         <v>16348</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>234</v>
+        <v>65</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H34" s="7">
         <v>85</v>
@@ -3080,13 +3089,13 @@
         <v>39599</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M34" s="7">
         <v>115</v>
@@ -3095,19 +3104,19 @@
         <v>55948</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="7">
         <v>88</v>
@@ -3116,13 +3125,13 @@
         <v>55437</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H35" s="7">
         <v>206</v>
@@ -3131,13 +3140,13 @@
         <v>109840</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="M35" s="7">
         <v>294</v>
@@ -3146,19 +3155,19 @@
         <v>165277</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>248</v>
+        <v>35</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="7">
         <v>233</v>
@@ -3167,13 +3176,13 @@
         <v>155614</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H36" s="7">
         <v>414</v>
@@ -3182,13 +3191,13 @@
         <v>219752</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M36" s="7">
         <v>647</v>
@@ -3197,19 +3206,19 @@
         <v>375366</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="7">
         <v>463</v>
@@ -3218,13 +3227,13 @@
         <v>318646</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H37" s="7">
         <v>685</v>
@@ -3233,13 +3242,13 @@
         <v>479130</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M37" s="7">
         <v>1148</v>
@@ -3248,19 +3257,19 @@
         <v>797775</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>143</v>
+        <v>268</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="7">
         <v>209</v>
@@ -3269,13 +3278,13 @@
         <v>148186</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H38" s="7">
         <v>307</v>
@@ -3284,13 +3293,13 @@
         <v>170474</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M38" s="7">
         <v>516</v>
@@ -3299,13 +3308,13 @@
         <v>318660</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,13 +3329,13 @@
         <v>694231</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H39" s="7">
         <v>1697</v>
@@ -3335,13 +3344,13 @@
         <v>1018795</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M39" s="7">
         <v>2720</v>
@@ -3350,13 +3359,13 @@
         <v>1713026</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,13 +3382,13 @@
         <v>69952</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>276</v>
+        <v>109</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H40" s="7">
         <v>153</v>
@@ -3388,13 +3397,13 @@
         <v>91749</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M40" s="7">
         <v>234</v>
@@ -3406,16 +3415,16 @@
         <v>153</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>281</v>
+        <v>72</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41" s="7">
         <v>209</v>
@@ -3424,13 +3433,13 @@
         <v>176321</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>284</v>
+        <v>29</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H41" s="7">
         <v>406</v>
@@ -3439,13 +3448,13 @@
         <v>251053</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>115</v>
+        <v>288</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M41" s="7">
         <v>615</v>
@@ -3454,19 +3463,19 @@
         <v>427374</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" s="7">
         <v>494</v>
@@ -3475,13 +3484,13 @@
         <v>429190</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H42" s="7">
         <v>895</v>
@@ -3490,13 +3499,13 @@
         <v>574998</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M42" s="7">
         <v>1389</v>
@@ -3505,19 +3514,19 @@
         <v>1004188</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="7">
         <v>1582</v>
@@ -3526,13 +3535,13 @@
         <v>1512922</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H43" s="7">
         <v>2432</v>
@@ -3541,34 +3550,34 @@
         <v>1736392</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M43" s="7">
         <v>4014</v>
       </c>
       <c r="N43" s="7">
-        <v>3249314</v>
+        <v>3249313</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>50</v>
+        <v>308</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="7">
         <v>1003</v>
@@ -3577,13 +3586,13 @@
         <v>1191213</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H44" s="7">
         <v>1458</v>
@@ -3592,13 +3601,13 @@
         <v>1140858</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M44" s="7">
         <v>2461</v>
@@ -3607,13 +3616,13 @@
         <v>2332071</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3637,13 @@
         <v>3379598</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H45" s="7">
         <v>5344</v>
@@ -3643,33 +3652,33 @@
         <v>3795050</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M45" s="7">
         <v>8713</v>
       </c>
       <c r="N45" s="7">
-        <v>7174648</v>
+        <v>7174647</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57C1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57C1_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70B367F9-8367-4BAD-B212-13E019770156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF1F952A-7A57-4CBE-8B9D-D33DFD5B1A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D6EF0278-C615-4DCF-899D-B519125AC5A7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7D71C01B-3CA6-4377-AD9B-B9BE764CEEFB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1410,7 +1410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C356D5A6-47C9-4E5B-9CD7-77EC33FFA092}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0933EC78-8222-45C8-9D90-E9F9E5D25421}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57C1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57C1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF1F952A-7A57-4CBE-8B9D-D33DFD5B1A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35ADEEEC-2757-45CF-A66E-CE7EFC290E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7D71C01B-3CA6-4377-AD9B-B9BE764CEEFB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0B251819-B500-45D9-BA00-48DFE2F0EDCF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="318">
   <si>
     <t>Población según si ha sido optimista respecto a su futuro en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -83,919 +83,910 @@
     <t>1,78%</t>
   </si>
   <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>En desacuerdo</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>De acuerdo</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>Muy de acuerdo</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
     <t>5,95%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>En desacuerdo</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>De acuerdo</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>Muy de acuerdo</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
   </si>
   <si>
     <t>26,83%</t>
   </si>
   <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
+    <t>31,83%</t>
   </si>
   <si>
     <t>32,5%</t>
   </si>
   <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1410,7 +1401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0933EC78-8222-45C8-9D90-E9F9E5D25421}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81059B7B-761B-456A-BBF5-BC5F1CDE08E5}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1567,16 +1558,16 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1585,13 +1576,13 @@
         <v>1618</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -1600,13 +1591,13 @@
         <v>8400</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -1615,19 +1606,19 @@
         <v>10019</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>14</v>
@@ -1636,13 +1627,13 @@
         <v>31962</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -1651,13 +1642,13 @@
         <v>46242</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>40</v>
@@ -1666,19 +1657,19 @@
         <v>78204</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>60</v>
@@ -1687,13 +1678,13 @@
         <v>137906</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
         <v>77</v>
@@ -1702,13 +1693,13 @@
         <v>128019</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>137</v>
@@ -1717,19 +1708,19 @@
         <v>265924</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>96</v>
@@ -1738,13 +1729,13 @@
         <v>206033</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7">
         <v>95</v>
@@ -1753,13 +1744,13 @@
         <v>165819</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M8" s="7">
         <v>191</v>
@@ -1768,13 +1759,13 @@
         <v>371851</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1789,13 +1780,13 @@
         <v>377679</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>206</v>
@@ -1804,13 +1795,13 @@
         <v>354798</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>378</v>
@@ -1819,18 +1810,18 @@
         <v>732476</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1842,13 +1833,13 @@
         <v>7142</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -1857,13 +1848,13 @@
         <v>7108</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -1872,19 +1863,19 @@
         <v>14250</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>8</v>
@@ -1893,7 +1884,7 @@
         <v>13283</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>69</v>
@@ -1935,7 +1926,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7">
         <v>26</v>
@@ -1986,7 +1977,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
         <v>141</v>
@@ -2037,7 +2028,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>122</v>
@@ -2097,13 +2088,13 @@
         <v>428396</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>460</v>
@@ -2112,13 +2103,13 @@
         <v>498577</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>762</v>
@@ -2127,13 +2118,13 @@
         <v>926973</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2156,7 +2147,7 @@
         <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2165,13 +2156,13 @@
         <v>4093</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -2180,19 +2171,19 @@
         <v>15574</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>21</v>
@@ -2201,13 +2192,13 @@
         <v>21555</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -2216,13 +2207,13 @@
         <v>21950</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -2231,19 +2222,19 @@
         <v>43504</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
         <v>48</v>
@@ -2252,7 +2243,7 @@
         <v>43175</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>121</v>
@@ -2273,7 +2264,7 @@
         <v>124</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="M18" s="7">
         <v>131</v>
@@ -2282,19 +2273,19 @@
         <v>101907</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
         <v>241</v>
@@ -2303,13 +2294,13 @@
         <v>242330</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H19" s="7">
         <v>416</v>
@@ -2318,13 +2309,13 @@
         <v>272549</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M19" s="7">
         <v>657</v>
@@ -2333,19 +2324,19 @@
         <v>514879</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>225</v>
@@ -2354,13 +2345,13 @@
         <v>238712</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>308</v>
@@ -2369,13 +2360,13 @@
         <v>225310</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>533</v>
@@ -2384,13 +2375,13 @@
         <v>464021</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2396,13 @@
         <v>557252</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>844</v>
@@ -2420,13 +2411,13 @@
         <v>582634</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>1390</v>
@@ -2435,13 +2426,13 @@
         <v>1139886</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,7 +2491,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>34</v>
@@ -2527,10 +2518,10 @@
         <v>159</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>101</v>
@@ -2539,19 +2530,19 @@
         <v>78090</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" s="7">
         <v>71</v>
@@ -2560,13 +2551,13 @@
         <v>69206</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>127</v>
@@ -2575,13 +2566,13 @@
         <v>83172</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="M24" s="7">
         <v>198</v>
@@ -2590,19 +2581,19 @@
         <v>152378</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
         <v>334</v>
@@ -2611,13 +2602,13 @@
         <v>324718</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>564</v>
@@ -2626,10 +2617,10 @@
         <v>359011</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>177</v>
@@ -2653,7 +2644,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>208</v>
@@ -2662,13 +2653,13 @@
         <v>275385</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>359</v>
@@ -2677,13 +2668,13 @@
         <v>246356</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>567</v>
@@ -2692,13 +2683,13 @@
         <v>521740</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2713,13 +2704,13 @@
         <v>722954</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>1139</v>
@@ -2728,13 +2719,13 @@
         <v>746099</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>1803</v>
@@ -2743,18 +2734,18 @@
         <v>1469053</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2766,13 +2757,13 @@
         <v>15293</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="G28" s="7" t="s">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="H28" s="7">
         <v>33</v>
@@ -2781,13 +2772,13 @@
         <v>21043</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M28" s="7">
         <v>50</v>
@@ -2796,19 +2787,19 @@
         <v>36336</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>57</v>
@@ -2817,13 +2808,13 @@
         <v>50312</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H29" s="7">
         <v>81</v>
@@ -2832,13 +2823,13 @@
         <v>49057</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M29" s="7">
         <v>138</v>
@@ -2847,19 +2838,19 @@
         <v>99368</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" s="7">
         <v>102</v>
@@ -2868,13 +2859,13 @@
         <v>93090</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H30" s="7">
         <v>203</v>
@@ -2883,13 +2874,13 @@
         <v>126140</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M30" s="7">
         <v>305</v>
@@ -2898,19 +2889,19 @@
         <v>219229</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
         <v>343</v>
@@ -2919,13 +2910,13 @@
         <v>301834</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H31" s="7">
         <v>469</v>
@@ -2934,13 +2925,13 @@
         <v>270610</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M31" s="7">
         <v>812</v>
@@ -2949,19 +2940,19 @@
         <v>572444</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7">
         <v>143</v>
@@ -2970,13 +2961,13 @@
         <v>138558</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H32" s="7">
         <v>212</v>
@@ -2985,13 +2976,13 @@
         <v>127297</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M32" s="7">
         <v>355</v>
@@ -3000,13 +2991,13 @@
         <v>265856</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,13 +3012,13 @@
         <v>599086</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
         <v>998</v>
@@ -3036,13 +3027,13 @@
         <v>594147</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
         <v>1660</v>
@@ -3051,18 +3042,18 @@
         <v>1193233</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3074,13 +3065,13 @@
         <v>16348</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>236</v>
+        <v>112</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>65</v>
+        <v>234</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H34" s="7">
         <v>85</v>
@@ -3089,13 +3080,13 @@
         <v>39599</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M34" s="7">
         <v>115</v>
@@ -3104,19 +3095,19 @@
         <v>55948</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C35" s="7">
         <v>88</v>
@@ -3125,13 +3116,13 @@
         <v>55437</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H35" s="7">
         <v>206</v>
@@ -3140,13 +3131,13 @@
         <v>109840</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="M35" s="7">
         <v>294</v>
@@ -3155,19 +3146,19 @@
         <v>165277</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>35</v>
+        <v>248</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36" s="7">
         <v>233</v>
@@ -3176,13 +3167,13 @@
         <v>155614</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H36" s="7">
         <v>414</v>
@@ -3191,13 +3182,13 @@
         <v>219752</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M36" s="7">
         <v>647</v>
@@ -3206,19 +3197,19 @@
         <v>375366</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
         <v>463</v>
@@ -3227,13 +3218,13 @@
         <v>318646</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H37" s="7">
         <v>685</v>
@@ -3242,13 +3233,13 @@
         <v>479130</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M37" s="7">
         <v>1148</v>
@@ -3257,19 +3248,19 @@
         <v>797775</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>268</v>
+        <v>143</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38" s="7">
         <v>209</v>
@@ -3278,13 +3269,13 @@
         <v>148186</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>271</v>
+        <v>209</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H38" s="7">
         <v>307</v>
@@ -3293,13 +3284,13 @@
         <v>170474</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M38" s="7">
         <v>516</v>
@@ -3308,13 +3299,13 @@
         <v>318660</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,13 +3320,13 @@
         <v>694231</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H39" s="7">
         <v>1697</v>
@@ -3344,13 +3335,13 @@
         <v>1018795</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M39" s="7">
         <v>2720</v>
@@ -3359,13 +3350,13 @@
         <v>1713026</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,13 +3373,13 @@
         <v>69952</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>109</v>
+        <v>276</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H40" s="7">
         <v>153</v>
@@ -3397,13 +3388,13 @@
         <v>91749</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M40" s="7">
         <v>234</v>
@@ -3415,16 +3406,16 @@
         <v>153</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>72</v>
+        <v>281</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C41" s="7">
         <v>209</v>
@@ -3433,13 +3424,13 @@
         <v>176321</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H41" s="7">
         <v>406</v>
@@ -3448,13 +3439,13 @@
         <v>251053</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M41" s="7">
         <v>615</v>
@@ -3463,19 +3454,19 @@
         <v>427374</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42" s="7">
         <v>494</v>
@@ -3484,13 +3475,13 @@
         <v>429190</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H42" s="7">
         <v>895</v>
@@ -3499,13 +3490,13 @@
         <v>574998</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M42" s="7">
         <v>1389</v>
@@ -3514,19 +3505,19 @@
         <v>1004188</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C43" s="7">
         <v>1582</v>
@@ -3535,13 +3526,13 @@
         <v>1512922</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H43" s="7">
         <v>2432</v>
@@ -3550,34 +3541,34 @@
         <v>1736392</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M43" s="7">
         <v>4014</v>
       </c>
       <c r="N43" s="7">
-        <v>3249313</v>
+        <v>3249314</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>308</v>
+        <v>50</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" s="7">
         <v>1003</v>
@@ -3586,13 +3577,13 @@
         <v>1191213</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H44" s="7">
         <v>1458</v>
@@ -3601,13 +3592,13 @@
         <v>1140858</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M44" s="7">
         <v>2461</v>
@@ -3616,13 +3607,13 @@
         <v>2332071</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3628,13 @@
         <v>3379598</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H45" s="7">
         <v>5344</v>
@@ -3652,33 +3643,33 @@
         <v>3795050</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M45" s="7">
         <v>8713</v>
       </c>
       <c r="N45" s="7">
-        <v>7174647</v>
+        <v>7174648</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57C1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57C1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35ADEEEC-2757-45CF-A66E-CE7EFC290E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B34213C4-2D12-4AEA-90BC-FCB8F80CA568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0B251819-B500-45D9-BA00-48DFE2F0EDCF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A6F6667C-0910-4F69-85B4-0018A4D6805A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="358">
   <si>
     <t>Población según si ha sido optimista respecto a su futuro en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Muy en desacuerdo</t>
@@ -80,913 +80,1033 @@
     <t>0,22%</t>
   </si>
   <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>En desacuerdo</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>De acuerdo</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>Muy de acuerdo</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>En desacuerdo</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>De acuerdo</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>Muy de acuerdo</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1401,8 +1521,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81059B7B-761B-456A-BBF5-BC5F1CDE08E5}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53F8D35-CB55-4D26-9B95-4027DFB5AE6F}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1522,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1537,7 +1657,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>6318</v>
+        <v>5448</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1552,7 +1672,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>6478</v>
+        <v>5612</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1573,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1618</v>
+        <v>1539</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -1588,7 +1708,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>8400</v>
+        <v>9638</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -1603,7 +1723,7 @@
         <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>10019</v>
+        <v>11177</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>25</v>
@@ -1624,7 +1744,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>31962</v>
+        <v>30823</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>29</v>
@@ -1639,7 +1759,7 @@
         <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>46242</v>
+        <v>39857</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>32</v>
@@ -1654,7 +1774,7 @@
         <v>40</v>
       </c>
       <c r="N6" s="7">
-        <v>78204</v>
+        <v>70680</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>35</v>
@@ -1675,7 +1795,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="7">
-        <v>137906</v>
+        <v>159461</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>39</v>
@@ -1690,7 +1810,7 @@
         <v>77</v>
       </c>
       <c r="I7" s="7">
-        <v>128019</v>
+        <v>111539</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>42</v>
@@ -1705,7 +1825,7 @@
         <v>137</v>
       </c>
       <c r="N7" s="7">
-        <v>265924</v>
+        <v>271000</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>45</v>
@@ -1726,7 +1846,7 @@
         <v>96</v>
       </c>
       <c r="D8" s="7">
-        <v>206033</v>
+        <v>208000</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -1741,7 +1861,7 @@
         <v>95</v>
       </c>
       <c r="I8" s="7">
-        <v>165819</v>
+        <v>146556</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>52</v>
@@ -1756,7 +1876,7 @@
         <v>191</v>
       </c>
       <c r="N8" s="7">
-        <v>371851</v>
+        <v>354556</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>55</v>
@@ -1777,7 +1897,7 @@
         <v>172</v>
       </c>
       <c r="D9" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>58</v>
@@ -1792,7 +1912,7 @@
         <v>206</v>
       </c>
       <c r="I9" s="7">
-        <v>354798</v>
+        <v>313038</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>58</v>
@@ -1807,7 +1927,7 @@
         <v>378</v>
       </c>
       <c r="N9" s="7">
-        <v>732476</v>
+        <v>713025</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1830,7 +1950,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>7142</v>
+        <v>6506</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1845,7 +1965,7 @@
         <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>7108</v>
+        <v>6568</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1860,7 +1980,7 @@
         <v>11</v>
       </c>
       <c r="N10" s="7">
-        <v>14250</v>
+        <v>13074</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1881,46 +2001,46 @@
         <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>13283</v>
+        <v>14140</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
       </c>
       <c r="I11" s="7">
-        <v>17833</v>
+        <v>15068</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
       </c>
       <c r="N11" s="7">
-        <v>31115</v>
+        <v>29208</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,46 +2052,46 @@
         <v>26</v>
       </c>
       <c r="D12" s="7">
-        <v>36144</v>
+        <v>36776</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>42</v>
       </c>
       <c r="I12" s="7">
-        <v>40960</v>
+        <v>38098</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>68</v>
       </c>
       <c r="N12" s="7">
-        <v>77104</v>
+        <v>74874</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,46 +2103,46 @@
         <v>141</v>
       </c>
       <c r="D13" s="7">
-        <v>187489</v>
+        <v>185707</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>221</v>
       </c>
       <c r="I13" s="7">
-        <v>227073</v>
+        <v>211717</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>362</v>
       </c>
       <c r="N13" s="7">
-        <v>414562</v>
+        <v>397425</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,46 +2154,46 @@
         <v>122</v>
       </c>
       <c r="D14" s="7">
-        <v>184339</v>
+        <v>180417</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="H14" s="7">
         <v>177</v>
       </c>
       <c r="I14" s="7">
-        <v>205603</v>
+        <v>240053</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>299</v>
       </c>
       <c r="N14" s="7">
-        <v>389942</v>
+        <v>420470</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,7 +2205,7 @@
         <v>302</v>
       </c>
       <c r="D15" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>58</v>
@@ -2100,7 +2220,7 @@
         <v>460</v>
       </c>
       <c r="I15" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>58</v>
@@ -2115,7 +2235,7 @@
         <v>762</v>
       </c>
       <c r="N15" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>58</v>
@@ -2129,7 +2249,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2138,46 +2258,46 @@
         <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>11481</v>
+        <v>10753</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>4093</v>
+        <v>3723</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
       </c>
       <c r="N16" s="7">
-        <v>15574</v>
+        <v>14476</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,25 +2309,25 @@
         <v>21</v>
       </c>
       <c r="D17" s="7">
-        <v>21555</v>
+        <v>20335</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
       </c>
       <c r="I17" s="7">
-        <v>21950</v>
+        <v>20227</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>116</v>
@@ -2219,7 +2339,7 @@
         <v>53</v>
       </c>
       <c r="N17" s="7">
-        <v>43504</v>
+        <v>40562</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>118</v>
@@ -2240,46 +2360,46 @@
         <v>48</v>
       </c>
       <c r="D18" s="7">
-        <v>43175</v>
+        <v>41523</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H18" s="7">
         <v>83</v>
       </c>
       <c r="I18" s="7">
-        <v>58732</v>
+        <v>53296</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M18" s="7">
         <v>131</v>
       </c>
       <c r="N18" s="7">
-        <v>101907</v>
+        <v>94819</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,10 +2411,10 @@
         <v>241</v>
       </c>
       <c r="D19" s="7">
-        <v>242330</v>
+        <v>235480</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>130</v>
@@ -2306,7 +2426,7 @@
         <v>416</v>
       </c>
       <c r="I19" s="7">
-        <v>272549</v>
+        <v>255778</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>132</v>
@@ -2321,7 +2441,7 @@
         <v>657</v>
       </c>
       <c r="N19" s="7">
-        <v>514879</v>
+        <v>491257</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>135</v>
@@ -2342,7 +2462,7 @@
         <v>225</v>
       </c>
       <c r="D20" s="7">
-        <v>238712</v>
+        <v>228247</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>138</v>
@@ -2357,7 +2477,7 @@
         <v>308</v>
       </c>
       <c r="I20" s="7">
-        <v>225310</v>
+        <v>208636</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>141</v>
@@ -2372,7 +2492,7 @@
         <v>533</v>
       </c>
       <c r="N20" s="7">
-        <v>464021</v>
+        <v>436883</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>144</v>
@@ -2381,7 +2501,7 @@
         <v>145</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,7 +2513,7 @@
         <v>546</v>
       </c>
       <c r="D21" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>58</v>
@@ -2408,7 +2528,7 @@
         <v>844</v>
       </c>
       <c r="I21" s="7">
-        <v>582634</v>
+        <v>541659</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -2423,7 +2543,7 @@
         <v>1390</v>
       </c>
       <c r="N21" s="7">
-        <v>1139886</v>
+        <v>1077997</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -2437,7 +2557,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2446,43 +2566,43 @@
         <v>17</v>
       </c>
       <c r="D22" s="7">
-        <v>19529</v>
+        <v>18401</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
       </c>
       <c r="I22" s="7">
-        <v>13586</v>
+        <v>12444</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
       </c>
       <c r="N22" s="7">
-        <v>33115</v>
+        <v>30845</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>155</v>
@@ -2497,7 +2617,7 @@
         <v>34</v>
       </c>
       <c r="D23" s="7">
-        <v>34116</v>
+        <v>31901</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>156</v>
@@ -2512,31 +2632,31 @@
         <v>67</v>
       </c>
       <c r="I23" s="7">
-        <v>43974</v>
+        <v>39877</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>159</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>101</v>
       </c>
       <c r="N23" s="7">
-        <v>78090</v>
+        <v>71778</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,46 +2668,46 @@
         <v>71</v>
       </c>
       <c r="D24" s="7">
-        <v>69206</v>
+        <v>65141</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>127</v>
       </c>
       <c r="I24" s="7">
-        <v>83172</v>
+        <v>76017</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>198</v>
       </c>
       <c r="N24" s="7">
-        <v>152378</v>
+        <v>141158</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,46 +2719,46 @@
         <v>334</v>
       </c>
       <c r="D25" s="7">
-        <v>324718</v>
+        <v>310588</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>564</v>
       </c>
       <c r="I25" s="7">
-        <v>359011</v>
+        <v>357805</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>898</v>
       </c>
       <c r="N25" s="7">
-        <v>683729</v>
+        <v>668393</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,46 +2770,46 @@
         <v>208</v>
       </c>
       <c r="D26" s="7">
-        <v>275385</v>
+        <v>460751</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>359</v>
       </c>
       <c r="I26" s="7">
-        <v>246356</v>
+        <v>225633</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>567</v>
       </c>
       <c r="N26" s="7">
-        <v>521740</v>
+        <v>686383</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,7 +2821,7 @@
         <v>664</v>
       </c>
       <c r="D27" s="7">
-        <v>722954</v>
+        <v>886782</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>58</v>
@@ -2716,7 +2836,7 @@
         <v>1139</v>
       </c>
       <c r="I27" s="7">
-        <v>746099</v>
+        <v>711775</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>58</v>
@@ -2731,7 +2851,7 @@
         <v>1803</v>
       </c>
       <c r="N27" s="7">
-        <v>1469053</v>
+        <v>1598557</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>58</v>
@@ -2745,7 +2865,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2754,46 +2874,46 @@
         <v>17</v>
       </c>
       <c r="D28" s="7">
-        <v>15293</v>
+        <v>14049</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="H28" s="7">
         <v>33</v>
       </c>
       <c r="I28" s="7">
-        <v>21043</v>
+        <v>19204</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>50</v>
       </c>
       <c r="N28" s="7">
-        <v>36336</v>
+        <v>33253</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,46 +2925,46 @@
         <v>57</v>
       </c>
       <c r="D29" s="7">
-        <v>50312</v>
+        <v>46556</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>81</v>
       </c>
       <c r="I29" s="7">
-        <v>49057</v>
+        <v>44326</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>138</v>
       </c>
       <c r="N29" s="7">
-        <v>99368</v>
+        <v>90882</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,46 +2976,46 @@
         <v>102</v>
       </c>
       <c r="D30" s="7">
-        <v>93090</v>
+        <v>87015</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>203</v>
       </c>
       <c r="I30" s="7">
-        <v>126140</v>
+        <v>114347</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>305</v>
       </c>
       <c r="N30" s="7">
-        <v>219229</v>
+        <v>201362</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,46 +3027,46 @@
         <v>343</v>
       </c>
       <c r="D31" s="7">
-        <v>301834</v>
+        <v>282935</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H31" s="7">
         <v>469</v>
       </c>
       <c r="I31" s="7">
-        <v>270610</v>
+        <v>249583</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M31" s="7">
         <v>812</v>
       </c>
       <c r="N31" s="7">
-        <v>572444</v>
+        <v>532518</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>131</v>
+        <v>225</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,46 +3078,46 @@
         <v>143</v>
       </c>
       <c r="D32" s="7">
-        <v>138558</v>
+        <v>129682</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H32" s="7">
         <v>212</v>
       </c>
       <c r="I32" s="7">
-        <v>127297</v>
+        <v>117787</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M32" s="7">
         <v>355</v>
       </c>
       <c r="N32" s="7">
-        <v>265856</v>
+        <v>247469</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,7 +3129,7 @@
         <v>662</v>
       </c>
       <c r="D33" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>58</v>
@@ -3024,7 +3144,7 @@
         <v>998</v>
       </c>
       <c r="I33" s="7">
-        <v>594147</v>
+        <v>545247</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>58</v>
@@ -3039,7 +3159,7 @@
         <v>1660</v>
       </c>
       <c r="N33" s="7">
-        <v>1193233</v>
+        <v>1105484</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>58</v>
@@ -3053,55 +3173,55 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D34" s="7">
-        <v>16348</v>
+        <v>6391</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H34" s="7">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I34" s="7">
-        <v>39599</v>
+        <v>10484</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>237</v>
+        <v>61</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M34" s="7">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="N34" s="7">
-        <v>55948</v>
+        <v>16876</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>239</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,40 +3230,40 @@
         <v>19</v>
       </c>
       <c r="C35" s="7">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="D35" s="7">
-        <v>55437</v>
+        <v>24471</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H35" s="7">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="I35" s="7">
-        <v>109840</v>
+        <v>35458</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>245</v>
+        <v>164</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="L35" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="M35" s="7">
-        <v>294</v>
+        <v>115</v>
       </c>
       <c r="N35" s="7">
-        <v>165277</v>
+        <v>59929</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>247</v>
@@ -3161,10 +3281,10 @@
         <v>28</v>
       </c>
       <c r="C36" s="7">
-        <v>233</v>
+        <v>107</v>
       </c>
       <c r="D36" s="7">
-        <v>155614</v>
+        <v>67408</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>250</v>
@@ -3176,10 +3296,10 @@
         <v>252</v>
       </c>
       <c r="H36" s="7">
-        <v>414</v>
+        <v>166</v>
       </c>
       <c r="I36" s="7">
-        <v>219752</v>
+        <v>80295</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>253</v>
@@ -3191,10 +3311,10 @@
         <v>255</v>
       </c>
       <c r="M36" s="7">
-        <v>647</v>
+        <v>273</v>
       </c>
       <c r="N36" s="7">
-        <v>375366</v>
+        <v>147703</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>256</v>
@@ -3212,10 +3332,10 @@
         <v>38</v>
       </c>
       <c r="C37" s="7">
-        <v>463</v>
+        <v>279</v>
       </c>
       <c r="D37" s="7">
-        <v>318646</v>
+        <v>180455</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>259</v>
@@ -3227,10 +3347,10 @@
         <v>261</v>
       </c>
       <c r="H37" s="7">
-        <v>685</v>
+        <v>368</v>
       </c>
       <c r="I37" s="7">
-        <v>479130</v>
+        <v>382373</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>262</v>
@@ -3242,19 +3362,19 @@
         <v>264</v>
       </c>
       <c r="M37" s="7">
-        <v>1148</v>
+        <v>647</v>
       </c>
       <c r="N37" s="7">
-        <v>797775</v>
+        <v>562828</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>265</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,49 +3383,49 @@
         <v>48</v>
       </c>
       <c r="C38" s="7">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="D38" s="7">
-        <v>148186</v>
+        <v>87304</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H38" s="7">
-        <v>307</v>
+        <v>195</v>
       </c>
       <c r="I38" s="7">
-        <v>170474</v>
+        <v>98689</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M38" s="7">
-        <v>516</v>
+        <v>326</v>
       </c>
       <c r="N38" s="7">
-        <v>318660</v>
+        <v>185993</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,10 +3434,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>1023</v>
+        <v>567</v>
       </c>
       <c r="D39" s="7">
-        <v>694231</v>
+        <v>366029</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>58</v>
@@ -3329,10 +3449,10 @@
         <v>58</v>
       </c>
       <c r="H39" s="7">
-        <v>1697</v>
+        <v>825</v>
       </c>
       <c r="I39" s="7">
-        <v>1018795</v>
+        <v>607300</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>58</v>
@@ -3344,10 +3464,10 @@
         <v>58</v>
       </c>
       <c r="M39" s="7">
-        <v>2720</v>
+        <v>1392</v>
       </c>
       <c r="N39" s="7">
-        <v>1713026</v>
+        <v>973329</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>58</v>
@@ -3361,55 +3481,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>277</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D40" s="7">
-        <v>69952</v>
+        <v>9008</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="H40" s="7">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="I40" s="7">
-        <v>91749</v>
+        <v>25698</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>280</v>
+        <v>121</v>
       </c>
       <c r="M40" s="7">
-        <v>234</v>
+        <v>84</v>
       </c>
       <c r="N40" s="7">
-        <v>161701</v>
+        <v>34706</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,10 +3538,10 @@
         <v>19</v>
       </c>
       <c r="C41" s="7">
-        <v>209</v>
+        <v>48</v>
       </c>
       <c r="D41" s="7">
-        <v>176321</v>
+        <v>26328</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>283</v>
@@ -3433,34 +3553,34 @@
         <v>285</v>
       </c>
       <c r="H41" s="7">
-        <v>406</v>
+        <v>131</v>
       </c>
       <c r="I41" s="7">
-        <v>251053</v>
+        <v>61890</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>286</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>115</v>
+        <v>287</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M41" s="7">
-        <v>615</v>
+        <v>179</v>
       </c>
       <c r="N41" s="7">
-        <v>427374</v>
+        <v>88217</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,49 +3589,49 @@
         <v>28</v>
       </c>
       <c r="C42" s="7">
-        <v>494</v>
+        <v>126</v>
       </c>
       <c r="D42" s="7">
-        <v>429190</v>
+        <v>75761</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H42" s="7">
-        <v>895</v>
+        <v>248</v>
       </c>
       <c r="I42" s="7">
-        <v>574998</v>
+        <v>118279</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M42" s="7">
-        <v>1389</v>
+        <v>374</v>
       </c>
       <c r="N42" s="7">
-        <v>1004188</v>
+        <v>194040</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,25 +3640,25 @@
         <v>38</v>
       </c>
       <c r="C43" s="7">
-        <v>1582</v>
+        <v>184</v>
       </c>
       <c r="D43" s="7">
-        <v>1512922</v>
+        <v>118108</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>302</v>
+        <v>52</v>
       </c>
       <c r="H43" s="7">
-        <v>2432</v>
+        <v>317</v>
       </c>
       <c r="I43" s="7">
-        <v>1736392</v>
+        <v>157366</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>303</v>
@@ -3550,19 +3670,19 @@
         <v>305</v>
       </c>
       <c r="M43" s="7">
-        <v>4014</v>
+        <v>501</v>
       </c>
       <c r="N43" s="7">
-        <v>3249314</v>
+        <v>275474</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>50</v>
+        <v>306</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,46 +3691,46 @@
         <v>48</v>
       </c>
       <c r="C44" s="7">
-        <v>1003</v>
+        <v>78</v>
       </c>
       <c r="D44" s="7">
-        <v>1191213</v>
+        <v>52393</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H44" s="7">
-        <v>1458</v>
+        <v>112</v>
       </c>
       <c r="I44" s="7">
-        <v>1140858</v>
+        <v>56906</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K44" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="M44" s="7">
+        <v>190</v>
+      </c>
+      <c r="N44" s="7">
+        <v>109299</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M44" s="7">
-        <v>2461</v>
-      </c>
-      <c r="N44" s="7">
-        <v>2332071</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>316</v>
@@ -3622,63 +3742,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>456</v>
+      </c>
+      <c r="D45" s="7">
+        <v>281599</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="7">
+        <v>872</v>
+      </c>
+      <c r="I45" s="7">
+        <v>420139</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1328</v>
+      </c>
+      <c r="N45" s="7">
+        <v>701737</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>81</v>
+      </c>
+      <c r="D46" s="7">
+        <v>65273</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H46" s="7">
+        <v>153</v>
+      </c>
+      <c r="I46" s="7">
+        <v>83569</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="M46" s="7">
+        <v>234</v>
+      </c>
+      <c r="N46" s="7">
+        <v>148842</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="7">
+        <v>209</v>
+      </c>
+      <c r="D47" s="7">
+        <v>165270</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H47" s="7">
+        <v>406</v>
+      </c>
+      <c r="I47" s="7">
+        <v>226484</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M47" s="7">
+        <v>615</v>
+      </c>
+      <c r="N47" s="7">
+        <v>391753</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="7">
+        <v>494</v>
+      </c>
+      <c r="D48" s="7">
+        <v>404447</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H48" s="7">
+        <v>895</v>
+      </c>
+      <c r="I48" s="7">
+        <v>520189</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="M48" s="7">
+        <v>1389</v>
+      </c>
+      <c r="N48" s="7">
+        <v>924636</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1582</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1472734</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H49" s="7">
+        <v>2432</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1726162</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="M49" s="7">
+        <v>4014</v>
+      </c>
+      <c r="N49" s="7">
+        <v>3198895</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="7">
+        <v>1003</v>
+      </c>
+      <c r="D50" s="7">
+        <v>1346795</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H50" s="7">
+        <v>1458</v>
+      </c>
+      <c r="I50" s="7">
+        <v>1094259</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="M50" s="7">
+        <v>2461</v>
+      </c>
+      <c r="N50" s="7">
+        <v>2441053</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3369</v>
       </c>
-      <c r="D45" s="7">
-        <v>3379598</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>3454518</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="7">
         <v>5344</v>
       </c>
-      <c r="I45" s="7">
-        <v>3795050</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>3650662</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M51" s="7">
         <v>8713</v>
       </c>
-      <c r="N45" s="7">
-        <v>7174648</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>317</v>
+      <c r="N51" s="7">
+        <v>7105180</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
